--- a/data/PHYS.xlsx
+++ b/data/PHYS.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,6 +371,21 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Corequisites</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Concurrent</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Recommended</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>Terms Typically Offered</t>
         </is>
       </c>
@@ -388,10 +403,25 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
+          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -410,10 +440,25 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
+          <t>MATH 96; or MATH 115; or appropriate Math Placement Level.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
@@ -437,6 +482,21 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>F</t>
         </is>
       </c>
@@ -454,10 +514,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MATH 118 and high school trigonometry, or MATH 119.</t>
+          <t>MATH 118 and high school trigonometry, or MATH 119.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -476,10 +551,25 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PHYS 118, PHYS 121, PHYS 131, or PHYS 141.</t>
+          <t>PHYS 118, PHYS 121, PHYS 131, or PHYS 141.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -498,12 +588,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PHYS 118, PHYS 121, PHYS 131, or PHYS 141. Recommended: PHYS 122.</t>
+          <t>PHYS 118, PHYS 121, PHYS 131, or PHYS 141.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>PHYS 122.</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -520,10 +625,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Consent of the College of Science and Mathematics Advising Center. Co-requisite: PHYS 121.</t>
+          <t>Consent of the College of Science and Mathematics Advising Center. PHYS 121.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>F, W, SP</t>
         </is>
@@ -542,10 +662,25 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PHYS 131 or HNRS 131 or PHYS 141.</t>
+          <t>PHYS 131 or HNRS 131 or PHYS 141.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>F,W,SP,SU</t>
         </is>
@@ -564,12 +699,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PHYS 131 or HNRS 131 or PHYS 141, and MATH 142. Recommended: MATH 241.</t>
+          <t>PHYS 131 or HNRS 131 or PHYS 141, and MATH 142.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>MATH 241.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -586,12 +736,27 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MATH 141 with grade C- or better and MATH 142 or MATH 182 (or concurrent enrollment). Recommended: High School Physics.</t>
+          <t>MATH 141 with grade C- or better and MATH 142 or MATH 182 (or concurrent enrollment).</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>F,W,SP,SU</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>High School Physics.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F,W,SP,SU </t>
         </is>
       </c>
     </row>
@@ -613,6 +778,21 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -630,10 +810,25 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PHYS 133; and MATH 241 or MATH 244.</t>
+          <t>PHYS 133; and MATH 241 or MATH 244.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -652,10 +847,25 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>PHYS 133 and MATH 143.</t>
+          <t>PHYS 133 and MATH 143.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -674,12 +884,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PHYS 132 and PHYS 133 and MATH 241. Recommended: MATH 242 or MATH 244.</t>
+          <t>PHYS 132 and PHYS 133 and MATH 241.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>F, W, SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>MATH 242 or MATH 244.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F, W, SP </t>
         </is>
       </c>
     </row>
@@ -696,10 +921,25 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PHYS 211.</t>
+          <t>PHYS 211.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -718,10 +958,25 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PHYS 132 or PHYS 133.</t>
+          <t>PHYS 132 or PHYS 133.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -745,6 +1000,21 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -762,10 +1032,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PHYS 211.</t>
+          <t>PHYS 211.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -784,10 +1069,25 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PHYS 131 or PHYS 141; and MATH 241; and MATH 242 or MATH 244.</t>
+          <t>PHYS 131 or PHYS 141; and MATH 241; and MATH 242 or MATH 244.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -806,10 +1106,25 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PHYS 302.</t>
+          <t>PHYS 302.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -828,10 +1143,25 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PHYS 132.</t>
+          <t>PHYS 132.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -850,12 +1180,27 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PHYS 132 or PHYS 122, and MATH 241. Recommended: MATH 304.</t>
+          <t>PHYS 132 or PHYS 122, and MATH 241.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>MATH 304.</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -872,12 +1217,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PHYS 122 or PHYS 132; and MATH 241. Recommended: MATH 304 or PHYS 320.</t>
+          <t>PHYS 122 or PHYS 132; and MATH 241.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>MATH 304 or PHYS 320.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -894,10 +1254,25 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PHYS 211 and MATH 143.</t>
+          <t>PHYS 211 and MATH 143.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -916,10 +1291,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PHYS 211.</t>
+          <t>PHYS 211.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -938,10 +1328,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PHYS 211; MATH 242 or MATH 244; and Physics major.</t>
+          <t>PHYS 211; MATH 242 or MATH 244; and Physics major.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -960,10 +1365,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PHYS 320; and Physics major.</t>
+          <t>PHYS 320; and Physics major.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -982,12 +1402,27 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PHYS 132; and MATH 242 or MATH 244. Recommended: MATH 344.</t>
+          <t>PHYS 132; and MATH 242 or MATH 244.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>MATH 344.</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">F </t>
         </is>
       </c>
     </row>
@@ -1004,10 +1439,25 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MATH 241; PHYS 133; and one of the following: PHYS 320, PHYS 322, EE 228, EE 201, or ME 318.</t>
+          <t>MATH 241; PHYS 133; and one of the PHYS 320, PHYS 322, EE 228, EE 201, or ME 318.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1026,10 +1476,25 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>one of the following: PHYS 122, PHYS 123, PHYS 132, PHYS 133, PSC 102, or PSC 103.</t>
+          <t>one of the PHYS 122, PHYS 123, PHYS 132, PHYS 133, PSC 102, or PSC 103.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1048,10 +1513,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PHYS 206; PHYS 212; and one of the following: PHYS 202, CSC 101, CSC 231, or CSC 234.</t>
+          <t>PHYS 206; PHYS 212; and one of the PHYS 202, CSC 101, CSC 231, or CSC 234.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1070,10 +1550,25 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PHYS 340.</t>
+          <t>PHYS 340.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1092,10 +1587,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PHYS 341.</t>
+          <t>PHYS 341.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1114,10 +1624,25 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>PHYS 206.</t>
+          <t>PHYS 206.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1141,6 +1666,21 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1158,10 +1698,25 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PHYS 301.</t>
+          <t>PHYS 301.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1180,10 +1735,25 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PHYS 212 and PHYS 405.</t>
+          <t>PHYS 212 and PHYS 405.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1207,6 +1777,21 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>F, W, SP</t>
         </is>
       </c>
@@ -1224,12 +1809,27 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PHYS 212; PHYS 302; PHYS 320 or PHYS 322; MATH 241; and MATH 242 or MATH 244. Recommended: MATH 344 or PHYS 321.</t>
+          <t>PHYS 212; PHYS 302; PHYS 320 or PHYS 322; MATH 241; and MATH 242 or MATH 244.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>MATH 344 or PHYS 321.</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1246,10 +1846,25 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PHYS 405.</t>
+          <t>PHYS 405.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1268,10 +1883,25 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PHYS 133; and MATH 304 or PHYS 320.</t>
+          <t>PHYS 133; and MATH 304 or PHYS 320.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1290,12 +1920,27 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PHYS 408. Recommended: PHYS 320 or PHYS 322.</t>
+          <t>PHYS 408.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>PHYS 320 or PHYS 322.</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">W </t>
         </is>
       </c>
     </row>
@@ -1312,10 +1957,25 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PHYS 133; MATH 241; and MATH 242 or MATH 244.</t>
+          <t>PHYS 133; MATH 241; and MATH 242 or MATH 244.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1334,10 +1994,25 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PHYS 211; and MATH 242 or MATH 244.</t>
+          <t>PHYS 211; and MATH 242 or MATH 244.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
         <is>
           <t>F</t>
         </is>
@@ -1356,10 +2031,25 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PHYS 412.</t>
+          <t>PHYS 412.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1378,12 +2068,27 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>PHYS 132 or PHYS 122; and PHYS 133 or PHYS 123; and MATH 241; and MATH 242 or MATH 244. Recommended: Junior standing.</t>
+          <t>PHYS 132 or PHYS 122; and PHYS 133 or PHYS 123; and MATH 241; and MATH 242 or MATH 244.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Junior standing.</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SP </t>
         </is>
       </c>
     </row>
@@ -1400,10 +2105,25 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PHYS 211; and PHYS 302.</t>
+          <t>PHYS 211; and PHYS 302.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1422,10 +2142,25 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>EE 347 or MATE 340 or CHEM 319 or PHYS 340.</t>
+          <t>EE 347 or MATE 340 or CHEM 319 or PHYS 340.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1444,10 +2179,25 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PHYS 323.</t>
+          <t>PHYS 323.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1466,10 +2216,25 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MATH 304; MATH 344; and PHYS 133.</t>
+          <t>MATH 304; MATH 344; and PHYS 133.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>SP</t>
         </is>
@@ -1493,7 +2258,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SPPrerequisite or concurrent: PHYS 412.</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>SPPrerequisite or PHYS 412.</t>
         </is>
       </c>
     </row>
@@ -1515,6 +2295,21 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1537,6 +2332,21 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>F,W,SP,SU</t>
         </is>
       </c>
@@ -1559,6 +2369,21 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1581,6 +2406,21 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1603,6 +2443,21 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
@@ -1624,6 +2479,21 @@
         </is>
       </c>
       <c r="D58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
